--- a/Wiring Info for Yadama Walls.xlsx
+++ b/Wiring Info for Yadama Walls.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Dropbox/NSF-Career/@Hygrothermal Study at NET/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokeeffe\OneDrive - Washington State University (email.wsu.edu)\Projects\PUYALLUPNET - Vik's logger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3BFEEEB-FA34-A641-A50A-CEBE2B5DE42B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26000" windowHeight="12760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="North Wall 7" sheetId="1" r:id="rId1"/>
     <sheet name="North Wall 8" sheetId="2" r:id="rId2"/>
+    <sheet name="Mux Map" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="237">
   <si>
     <t>Sensor</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Com (lL)</t>
   </si>
   <si>
-    <t>RH 247</t>
-  </si>
-  <si>
     <t>Ground</t>
   </si>
   <si>
@@ -476,13 +473,311 @@
   </si>
   <si>
     <t>These are the channels on MUX</t>
+  </si>
+  <si>
+    <t>Logger 1 - Mux A</t>
+  </si>
+  <si>
+    <t>Logger 2 - Mux A</t>
+  </si>
+  <si>
+    <t>Logger 1 - Mux B</t>
+  </si>
+  <si>
+    <t>Logger 1 - Mux C</t>
+  </si>
+  <si>
+    <t>Logger 2 - Mux B</t>
+  </si>
+  <si>
+    <t>Logger 2 - Mux C</t>
+  </si>
+  <si>
+    <t>Logger 2 - Mux D</t>
+  </si>
+  <si>
+    <t>Logger 2 - Mux E</t>
+  </si>
+  <si>
+    <t>Logger 1 - Mux E</t>
+  </si>
+  <si>
+    <t>Logger 1 - Mux D</t>
+  </si>
+  <si>
+    <t>PMM 274 (T)</t>
+  </si>
+  <si>
+    <t>PMM 274 (M)</t>
+  </si>
+  <si>
+    <t>EMS 358 (M)</t>
+  </si>
+  <si>
+    <t>EMS 358 (T)</t>
+  </si>
+  <si>
+    <t>PMM 280 (T)</t>
+  </si>
+  <si>
+    <t>PMM 280 (M)</t>
+  </si>
+  <si>
+    <t>North Wall 7</t>
+  </si>
+  <si>
+    <t>North Wall 8</t>
+  </si>
+  <si>
+    <t>3H - jumper 3L to adjacent earth terminal</t>
+  </si>
+  <si>
+    <t>RH 247 (RH)</t>
+  </si>
+  <si>
+    <t>RH 247 (T)</t>
+  </si>
+  <si>
+    <t>EMS 357 (M)</t>
+  </si>
+  <si>
+    <t>EMS 357 (T)</t>
+  </si>
+  <si>
+    <t>PMM 278 (T)</t>
+  </si>
+  <si>
+    <t>PMM 278 (M)</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>RH 247 (HTM)</t>
+  </si>
+  <si>
+    <t>PMM 265 (T)</t>
+  </si>
+  <si>
+    <t>PMM 265 (M)</t>
+  </si>
+  <si>
+    <t>PMM 260 (T)</t>
+  </si>
+  <si>
+    <t>PMM 260 (M)</t>
+  </si>
+  <si>
+    <t>PMM 282 (T)</t>
+  </si>
+  <si>
+    <t>PMM 282 (M)</t>
+  </si>
+  <si>
+    <t>PMM 261 (T)</t>
+  </si>
+  <si>
+    <t>PMM 261 (M)</t>
+  </si>
+  <si>
+    <t>PMM 262 (M)</t>
+  </si>
+  <si>
+    <t>PMM 262 (T)</t>
+  </si>
+  <si>
+    <t>PMM 263 (T)</t>
+  </si>
+  <si>
+    <t>PMM 264 (M)</t>
+  </si>
+  <si>
+    <t>PMM 267 (T)</t>
+  </si>
+  <si>
+    <t>PMM 268 (M)</t>
+  </si>
+  <si>
+    <t>PMM 263 (M)</t>
+  </si>
+  <si>
+    <t>PMM 283 (T)</t>
+  </si>
+  <si>
+    <t>PMM 283 (M)</t>
+  </si>
+  <si>
+    <t>PMM 264 (T)</t>
+  </si>
+  <si>
+    <t>PMM 277 (T)</t>
+  </si>
+  <si>
+    <t>PMM 277 (M)</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>rel humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moisture </t>
+  </si>
+  <si>
+    <t>RH 248 (RH)</t>
+  </si>
+  <si>
+    <t>RH 248 (T)</t>
+  </si>
+  <si>
+    <t>13H - jumper 13L to ground</t>
+  </si>
+  <si>
+    <t>PMM 281 (T)</t>
+  </si>
+  <si>
+    <t>PMM 281 (M)</t>
+  </si>
+  <si>
+    <t>PMM 275 (T)</t>
+  </si>
+  <si>
+    <t>PMM 275 (M)</t>
+  </si>
+  <si>
+    <t>PMM 269 (T)</t>
+  </si>
+  <si>
+    <t>PMM 269 (M)</t>
+  </si>
+  <si>
+    <t>PMM 268 (T)</t>
+  </si>
+  <si>
+    <t>PMM 276 (T)</t>
+  </si>
+  <si>
+    <t>PMM 276 (M)</t>
+  </si>
+  <si>
+    <t>PMM 270 (T)</t>
+  </si>
+  <si>
+    <t>PMM 270 (M)</t>
+  </si>
+  <si>
+    <t>PMM 271 (T)</t>
+  </si>
+  <si>
+    <t>PMM 271 (M)</t>
+  </si>
+  <si>
+    <t>PMM 272 (T)</t>
+  </si>
+  <si>
+    <t>PMM 272 (M)</t>
+  </si>
+  <si>
+    <t>PMM 273 (T)</t>
+  </si>
+  <si>
+    <t>PMM 273 (M)</t>
+  </si>
+  <si>
+    <t>EMS 355 (M)</t>
+  </si>
+  <si>
+    <t>EMS 355 (T)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ITC Stone Serif Std Medium"/>
+      </rPr>
+      <t>1L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ITC Stone Serif Std Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2L (typo?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ITC Stone Serif Std Medium"/>
+      </rPr>
+      <t>1H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ITC Stone Serif Std Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2H (typo?)</t>
+    </r>
+  </si>
+  <si>
+    <t>RH 249 (RH)</t>
+  </si>
+  <si>
+    <t>RH 249 (T)</t>
+  </si>
+  <si>
+    <t>PMM 279 (T)</t>
+  </si>
+  <si>
+    <t>PMM 279 (M)</t>
+  </si>
+  <si>
+    <t>RH 250 (RH)</t>
+  </si>
+  <si>
+    <t>RH 250 (T)</t>
+  </si>
+  <si>
+    <t>5H - jumper 5L to G</t>
+  </si>
+  <si>
+    <t>EMS 356 (M)</t>
+  </si>
+  <si>
+    <t>EMS 356 (T)</t>
+  </si>
+  <si>
+    <t>PMM 266 (T)</t>
+  </si>
+  <si>
+    <t>PMM 266 (M)</t>
+  </si>
+  <si>
+    <t>PMM 267 (M)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,16 +796,98 @@
       <color rgb="FFFF0000"/>
       <name val="ITC Stone Serif Std Medium"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ITC Stone Serif Std Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ITC Stone Serif Std Medium"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ITC Stone Serif Std Medium"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ITC Stone Serif Std Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -518,25 +895,274 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
+    <cellStyle name="Style 1" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -847,40 +1473,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I214"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:9" ht="15.75">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="G4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="34">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -919,7 +1545,7 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>5</v>
       </c>
       <c r="E6">
@@ -945,7 +1571,7 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7">
@@ -974,7 +1600,7 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>3</v>
       </c>
       <c r="E8">
@@ -1000,7 +1626,7 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>6</v>
       </c>
       <c r="E9">
@@ -1019,15 +1645,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:9" ht="15.75">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="34">
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1056,14 +1682,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="14">
         <v>23</v>
       </c>
       <c r="E15">
@@ -1082,7 +1708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1092,7 +1718,7 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="14">
         <v>24</v>
       </c>
       <c r="E16">
@@ -1111,7 +1737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1121,7 +1747,7 @@
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="14">
         <v>26</v>
       </c>
       <c r="E17">
@@ -1140,14 +1766,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="14">
         <v>25</v>
       </c>
       <c r="E18">
@@ -1166,15 +1792,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:9" ht="15.75">
+      <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="34">
+      <c r="B21" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1205,58 +1831,58 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>17</v>
       </c>
       <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
         <v>97</v>
-      </c>
-      <c r="G24" t="s">
-        <v>98</v>
       </c>
       <c r="H24" t="s">
         <v>18</v>
       </c>
       <c r="I24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
         <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>19</v>
       </c>
       <c r="E26">
@@ -1265,27 +1891,27 @@
       <c r="F26" t="s">
         <v>9</v>
       </c>
-      <c r="G26" t="s">
-        <v>40</v>
+      <c r="G26" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>28</v>
       </c>
       <c r="E27">
@@ -1295,7 +1921,7 @@
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
@@ -1306,12 +1932,12 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <v>27</v>
       </c>
       <c r="E28">
@@ -1321,24 +1947,24 @@
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:9" ht="15.75">
+      <c r="A32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="34">
+      <c r="B32" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1378,13 +2004,13 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1401,13 +2027,13 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" t="s">
         <v>99</v>
-      </c>
-      <c r="G36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1424,10 +2050,10 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
@@ -1444,24 +2070,24 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1">
-      <c r="A43" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="34">
+      <c r="B43" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1498,16 +2124,16 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" t="s">
         <v>110</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" t="s">
-        <v>111</v>
       </c>
       <c r="H46" t="s">
         <v>27</v>
@@ -1524,10 +2150,10 @@
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H47" t="s">
         <v>18</v>
@@ -1547,10 +2173,10 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H48" t="s">
         <v>23</v>
@@ -1567,24 +2193,24 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1">
-      <c r="A54" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A54" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="34">
+      <c r="B54" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1621,16 +2247,16 @@
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H57" t="s">
         <v>16</v>
@@ -1647,13 +2273,13 @@
         <v>2</v>
       </c>
       <c r="F58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58" t="s">
         <v>99</v>
-      </c>
-      <c r="G58" t="s">
-        <v>116</v>
-      </c>
-      <c r="H58" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -1670,13 +2296,13 @@
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -1690,24 +2316,24 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="5" customFormat="1">
-      <c r="A65" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A65" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="34">
+      <c r="B65" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1744,16 +2370,16 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H68" t="s">
         <v>27</v>
@@ -1770,10 +2396,10 @@
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H69" t="s">
         <v>18</v>
@@ -1793,10 +2419,10 @@
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H70" t="s">
         <v>23</v>
@@ -1813,24 +2439,24 @@
         <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="5" customFormat="1">
-      <c r="A76" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A76" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="34">
+      <c r="B76" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="30">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -1867,16 +2493,16 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H79" t="s">
         <v>27</v>
@@ -1893,10 +2519,10 @@
         <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H80" t="s">
         <v>18</v>
@@ -1916,10 +2542,10 @@
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H81" t="s">
         <v>23</v>
@@ -1936,24 +2562,24 @@
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H82" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="5" customFormat="1">
-      <c r="A87" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A87" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="34">
+      <c r="B87" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="30">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -1990,16 +2616,16 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H90" t="s">
         <v>16</v>
@@ -2016,13 +2642,13 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
+        <v>98</v>
+      </c>
+      <c r="G91" t="s">
+        <v>127</v>
+      </c>
+      <c r="H91" t="s">
         <v>99</v>
-      </c>
-      <c r="G91" t="s">
-        <v>128</v>
-      </c>
-      <c r="H91" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -2039,13 +2665,13 @@
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -2059,24 +2685,24 @@
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H93" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="5" customFormat="1">
-      <c r="A98" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A98" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="34">
+      <c r="B98" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="30">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -2113,16 +2739,16 @@
         <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E101">
         <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H101" t="s">
         <v>16</v>
@@ -2139,13 +2765,13 @@
         <v>2</v>
       </c>
       <c r="F102" t="s">
+        <v>98</v>
+      </c>
+      <c r="G102" t="s">
+        <v>131</v>
+      </c>
+      <c r="H102" t="s">
         <v>99</v>
-      </c>
-      <c r="G102" t="s">
-        <v>132</v>
-      </c>
-      <c r="H102" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -2162,13 +2788,13 @@
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -2182,24 +2808,24 @@
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H104" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="5" customFormat="1">
-      <c r="A109" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A109" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="34">
+      <c r="B109" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -2236,16 +2862,16 @@
         <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E112">
         <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H112" t="s">
         <v>27</v>
@@ -2262,10 +2888,10 @@
         <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H113" t="s">
         <v>18</v>
@@ -2285,10 +2911,10 @@
         <v>2</v>
       </c>
       <c r="F114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H114" t="s">
         <v>23</v>
@@ -2305,24 +2931,24 @@
         <v>2</v>
       </c>
       <c r="F115" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G115" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H115" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="5" customFormat="1">
-      <c r="A120" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A120" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="34">
+      <c r="B120" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="30">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -2359,16 +2985,16 @@
         <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H123" t="s">
         <v>16</v>
@@ -2385,13 +3011,13 @@
         <v>2</v>
       </c>
       <c r="F124" t="s">
+        <v>98</v>
+      </c>
+      <c r="G124" t="s">
+        <v>139</v>
+      </c>
+      <c r="H124" t="s">
         <v>99</v>
-      </c>
-      <c r="G124" t="s">
-        <v>140</v>
-      </c>
-      <c r="H124" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -2408,13 +3034,13 @@
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -2428,24 +3054,24 @@
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H126" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="5" customFormat="1">
-      <c r="A131" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A131" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="34">
+      <c r="B131" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -2482,16 +3108,16 @@
         <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H134" t="s">
         <v>27</v>
@@ -2508,10 +3134,10 @@
         <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H135" t="s">
         <v>18</v>
@@ -2531,10 +3157,10 @@
         <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H136" t="s">
         <v>23</v>
@@ -2551,24 +3177,24 @@
         <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H137" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="5" customFormat="1">
-      <c r="A142" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A142" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="34">
+      <c r="B142" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="30">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -2605,13 +3231,13 @@
         <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G145" t="s">
         <v>10</v>
@@ -2631,13 +3257,13 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G146" t="s">
         <v>19</v>
       </c>
       <c r="H146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -2654,13 +3280,13 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G147" t="s">
         <v>24</v>
       </c>
       <c r="H147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -2674,31 +3300,31 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G148" t="s">
         <v>26</v>
       </c>
       <c r="H148" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15.75">
+      <c r="A153" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-    </row>
-    <row r="155" spans="1:9" ht="34">
+      <c r="B153" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+    </row>
+    <row r="155" spans="1:9" ht="30">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -2729,33 +3355,33 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B156" t="s">
         <v>27</v>
       </c>
       <c r="E156" t="s">
+        <v>96</v>
+      </c>
+      <c r="G156" t="s">
         <v>97</v>
-      </c>
-      <c r="G156" t="s">
-        <v>98</v>
       </c>
       <c r="H156" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="17">
+    <row r="157" spans="1:9">
       <c r="A157" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E157" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G157" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H157" t="s">
         <v>18</v>
@@ -2763,30 +3389,30 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
+        <v>37</v>
+      </c>
+      <c r="B158" t="s">
         <v>38</v>
-      </c>
-      <c r="B158" t="s">
-        <v>39</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>147</v>
-      </c>
-      <c r="G158" t="s">
-        <v>106</v>
+        <v>146</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="H158" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>15</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C159" t="s">
         <v>17</v>
@@ -2795,51 +3421,51 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G159" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
+        <v>43</v>
+      </c>
+      <c r="B160" t="s">
         <v>44</v>
-      </c>
-      <c r="B160" t="s">
-        <v>45</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G160" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H160" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15.75">
+      <c r="A164" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B164" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-    </row>
-    <row r="166" spans="1:9" ht="34">
+      <c r="B164" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+    </row>
+    <row r="166" spans="1:9" ht="30">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -2876,16 +3502,16 @@
         <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E167">
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H167" t="s">
         <v>27</v>
@@ -2902,10 +3528,10 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H168" t="s">
         <v>18</v>
@@ -2925,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H169" t="s">
         <v>23</v>
@@ -2945,31 +3571,31 @@
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H170" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15.75">
+      <c r="A175" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B175" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-    </row>
-    <row r="177" spans="1:9" ht="34">
+      <c r="B175" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+    </row>
+    <row r="177" spans="1:9" ht="30">
       <c r="A177" t="s">
         <v>3</v>
       </c>
@@ -3006,16 +3632,16 @@
         <v>14</v>
       </c>
       <c r="C178" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
+        <v>146</v>
+      </c>
+      <c r="G178" t="s">
         <v>147</v>
-      </c>
-      <c r="G178" t="s">
-        <v>148</v>
       </c>
       <c r="H178" t="s">
         <v>27</v>
@@ -3032,10 +3658,10 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G179" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H179" t="s">
         <v>18</v>
@@ -3055,10 +3681,10 @@
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G180" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H180" t="s">
         <v>23</v>
@@ -3075,31 +3701,31 @@
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G181" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H181" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15.75">
+      <c r="A186" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B186" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-    </row>
-    <row r="188" spans="1:9" ht="34">
+      <c r="B186" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+    </row>
+    <row r="188" spans="1:9" ht="30">
       <c r="A188" t="s">
         <v>3</v>
       </c>
@@ -3136,16 +3762,16 @@
         <v>14</v>
       </c>
       <c r="C189" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G189" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H189" t="s">
         <v>16</v>
@@ -3162,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G190" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H190" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -3185,13 +3811,13 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G191" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H191" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -3205,31 +3831,31 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G192" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H192" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
-      <c r="A197" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15.75">
+      <c r="A197" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B197" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-    </row>
-    <row r="199" spans="1:9" ht="34">
+      <c r="B197" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+    </row>
+    <row r="199" spans="1:9" ht="30">
       <c r="A199" t="s">
         <v>3</v>
       </c>
@@ -3266,16 +3892,16 @@
         <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G200" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H200" t="s">
         <v>16</v>
@@ -3292,13 +3918,13 @@
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G201" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H201" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -3315,13 +3941,13 @@
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G202" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H202" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -3335,31 +3961,31 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G203" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H203" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="A208" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15.75">
+      <c r="A208" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B208" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-    </row>
-    <row r="210" spans="1:9" ht="34">
+      <c r="B208" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+    </row>
+    <row r="210" spans="1:9" ht="30">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -3396,16 +4022,16 @@
         <v>14</v>
       </c>
       <c r="C211" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G211" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H211" t="s">
         <v>27</v>
@@ -3422,10 +4048,10 @@
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G212" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H212" t="s">
         <v>18</v>
@@ -3445,10 +4071,10 @@
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G213" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H213" t="s">
         <v>23</v>
@@ -3465,13 +4091,13 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G214" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H214" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3481,35 +4107,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:H85"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:9" ht="15.75">
+      <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="34">
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3546,7 +4172,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3558,13 +4184,13 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3584,13 +4210,13 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3613,13 +4239,13 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3639,24 +4265,24 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="34">
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3693,7 +4319,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>24</v>
@@ -3705,13 +4331,13 @@
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3731,13 +4357,13 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3760,13 +4386,13 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3786,24 +4412,24 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
         <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75">
+      <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="34">
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3840,7 +4466,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>274</v>
@@ -3852,13 +4478,13 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3878,16 +4504,16 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3906,17 +4532,17 @@
       <c r="F26" t="s">
         <v>31</v>
       </c>
-      <c r="G26" t="s">
-        <v>61</v>
+      <c r="G26" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3932,25 +4558,25 @@
       <c r="F27" t="s">
         <v>31</v>
       </c>
-      <c r="G27" t="s">
-        <v>62</v>
+      <c r="G27" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="H27" t="s">
         <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75">
+      <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="34">
+      <c r="B30" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -3979,7 +4605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" ht="15.75">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -3987,7 +4613,7 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -3998,17 +4624,17 @@
       <c r="F33" t="s">
         <v>31</v>
       </c>
-      <c r="G33" t="s">
-        <v>64</v>
+      <c r="G33" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -4024,17 +4650,17 @@
       <c r="F34" t="s">
         <v>31</v>
       </c>
-      <c r="G34" t="s">
-        <v>65</v>
+      <c r="G34" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -4053,17 +4679,17 @@
       <c r="F35" t="s">
         <v>31</v>
       </c>
-      <c r="G35" t="s">
-        <v>66</v>
+      <c r="G35" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -4079,25 +4705,25 @@
       <c r="F36" t="s">
         <v>31</v>
       </c>
-      <c r="G36" t="s">
-        <v>67</v>
+      <c r="G36" s="28" t="s">
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75">
+      <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="34">
+      <c r="B39" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -4126,7 +4752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" ht="15.75">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -4142,17 +4768,17 @@
       <c r="F42" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>55</v>
+      <c r="G42" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="H42" t="s">
         <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -4171,17 +4797,17 @@
       <c r="F43" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>56</v>
+      <c r="G43" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="H43" t="s">
         <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -4200,17 +4826,17 @@
       <c r="F44" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>60</v>
+      <c r="G44" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="H44" t="s">
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -4226,25 +4852,25 @@
       <c r="F45" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>59</v>
+      <c r="G45" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="H45" t="s">
         <v>27</v>
       </c>
       <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75">
+      <c r="A50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="34">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -4275,7 +4901,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
         <v>27</v>
@@ -4284,21 +4910,21 @@
         <v>19</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" t="s">
         <v>97</v>
-      </c>
-      <c r="G52" t="s">
-        <v>98</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>18</v>
@@ -4307,24 +4933,24 @@
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s">
         <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75">
       <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
         <v>38</v>
-      </c>
-      <c r="B54" t="s">
-        <v>39</v>
       </c>
       <c r="D54">
         <v>17</v>
@@ -4335,22 +4961,22 @@
       <c r="F54" t="s">
         <v>9</v>
       </c>
-      <c r="G54" t="s">
-        <v>54</v>
+      <c r="G54" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="H54" t="s">
         <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75">
       <c r="A55" t="s">
         <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -4364,22 +4990,22 @@
       <c r="F55" t="s">
         <v>9</v>
       </c>
-      <c r="G55" t="s">
-        <v>67</v>
+      <c r="G55" s="28" t="s">
+        <v>66</v>
       </c>
       <c r="H55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75">
       <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
         <v>44</v>
-      </c>
-      <c r="B56" t="s">
-        <v>45</v>
       </c>
       <c r="D56">
         <v>14</v>
@@ -4390,25 +5016,25 @@
       <c r="F56" t="s">
         <v>9</v>
       </c>
-      <c r="G56" t="s">
-        <v>66</v>
+      <c r="G56" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="H56" t="s">
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75">
+      <c r="A60" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="34">
+      <c r="B60" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -4445,13 +5071,13 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G62" t="s">
         <v>10</v>
@@ -4471,7 +5097,7 @@
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -4494,10 +5120,10 @@
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="H64" t="s">
         <v>23</v>
@@ -4514,24 +5140,24 @@
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>99</v>
-      </c>
-      <c r="G65" t="s">
-        <v>10</v>
+        <v>98</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="H65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75">
+      <c r="A70" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="34">
+      <c r="B70" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="30">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -4568,16 +5194,16 @@
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H72" t="s">
         <v>16</v>
@@ -4594,13 +5220,13 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s">
         <v>99</v>
-      </c>
-      <c r="G73" t="s">
-        <v>40</v>
-      </c>
-      <c r="H73" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4617,13 +5243,13 @@
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4637,24 +5263,24 @@
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75">
+      <c r="A79" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="34">
+      <c r="B79" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="30">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -4685,33 +5311,33 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
         <v>27</v>
       </c>
       <c r="E81" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81" t="s">
         <v>97</v>
-      </c>
-      <c r="G81" t="s">
-        <v>98</v>
       </c>
       <c r="H81" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="17">
+    <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H82" t="s">
         <v>18</v>
@@ -4719,30 +5345,30 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" t="s">
         <v>38</v>
       </c>
-      <c r="B83" t="s">
-        <v>39</v>
-      </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="H83" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
@@ -4751,44 +5377,44 @@
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" t="s">
         <v>44</v>
       </c>
-      <c r="B85" t="s">
-        <v>45</v>
-      </c>
       <c r="E85">
         <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75">
+      <c r="A89" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="34">
+      <c r="B89" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="30">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -4828,13 +5454,13 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4851,13 +5477,13 @@
         <v>2</v>
       </c>
       <c r="F92" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" t="s">
+        <v>52</v>
+      </c>
+      <c r="H92" t="s">
         <v>99</v>
-      </c>
-      <c r="G92" t="s">
-        <v>53</v>
-      </c>
-      <c r="H92" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4874,10 +5500,10 @@
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H93" t="s">
         <v>16</v>
@@ -4894,24 +5520,24 @@
         <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H94" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75">
+      <c r="A99" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="34">
+      <c r="B99" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="30">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -4948,16 +5574,16 @@
         <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E101">
         <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H101" t="s">
         <v>16</v>
@@ -4974,13 +5600,13 @@
         <v>2</v>
       </c>
       <c r="F102" t="s">
+        <v>98</v>
+      </c>
+      <c r="G102" t="s">
+        <v>58</v>
+      </c>
+      <c r="H102" t="s">
         <v>99</v>
-      </c>
-      <c r="G102" t="s">
-        <v>59</v>
-      </c>
-      <c r="H102" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4997,13 +5623,13 @@
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5017,24 +5643,24 @@
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H104" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.75">
+      <c r="A109" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="34">
+      <c r="B109" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -5071,16 +5697,16 @@
         <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E111">
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H111" t="s">
         <v>27</v>
@@ -5097,10 +5723,10 @@
         <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H112" t="s">
         <v>18</v>
@@ -5120,10 +5746,10 @@
         <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H113" t="s">
         <v>23</v>
@@ -5140,16 +5766,1785 @@
         <v>2</v>
       </c>
       <c r="F114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="3.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="3.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="3.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="3.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="18"/>
+      <c r="B2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="20"/>
+      <c r="B3" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="E4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="20.25" thickBot="1">
+      <c r="A6" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="J6" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75">
+      <c r="A8" s="22">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24">
+        <v>9</v>
+      </c>
+      <c r="E8" s="24">
+        <v>17</v>
+      </c>
+      <c r="G8" s="24">
+        <v>25</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="J8" s="22">
+        <v>1</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="24">
+        <v>9</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="N8" s="24">
+        <v>17</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="P8" s="24">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75">
+      <c r="A9" s="22">
+        <v>2</v>
+      </c>
+      <c r="C9" s="24">
+        <v>10</v>
+      </c>
+      <c r="E9" s="24">
+        <v>18</v>
+      </c>
+      <c r="G9" s="24">
+        <v>26</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="J9" s="22">
+        <v>2</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" s="24">
+        <v>10</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="N9" s="24">
+        <v>18</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="P9" s="24">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75">
+      <c r="A10" s="22">
+        <v>3</v>
+      </c>
+      <c r="C10" s="24">
+        <v>11</v>
+      </c>
+      <c r="E10" s="24">
+        <v>19</v>
+      </c>
+      <c r="G10" s="24">
+        <v>27</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="J10" s="22">
+        <v>3</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="L10" s="24">
+        <v>11</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="N10" s="24">
+        <v>19</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P10" s="24">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75">
+      <c r="A11" s="22">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24">
+        <v>12</v>
+      </c>
+      <c r="E11" s="24">
+        <v>20</v>
+      </c>
+      <c r="G11" s="24">
+        <v>28</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="J11" s="22">
+        <v>4</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="24">
+        <v>12</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N11" s="24">
+        <v>20</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="P11" s="24">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75">
+      <c r="A12" s="22">
+        <v>5</v>
+      </c>
+      <c r="C12" s="24">
+        <v>13</v>
+      </c>
+      <c r="E12" s="24">
+        <v>21</v>
+      </c>
+      <c r="G12" s="24">
+        <v>29</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="J12" s="22">
+        <v>5</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="L12" s="24">
+        <v>13</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="N12" s="24">
+        <v>21</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P12" s="24">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="C13" s="24">
+        <v>14</v>
+      </c>
+      <c r="E13" s="24">
+        <v>22</v>
+      </c>
+      <c r="G13" s="24">
+        <v>30</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="J13" s="22">
+        <v>6</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="L13" s="24">
+        <v>14</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="N13" s="24">
+        <v>22</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="24">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75">
+      <c r="A14" s="22">
+        <v>7</v>
+      </c>
+      <c r="C14" s="24">
+        <v>15</v>
+      </c>
+      <c r="E14" s="24">
+        <v>23</v>
+      </c>
+      <c r="G14" s="24">
+        <v>31</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="J14" s="22">
+        <v>7</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="24">
+        <v>15</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="N14" s="24">
+        <v>23</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="P14" s="24">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75">
+      <c r="A15" s="22">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="24">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="24">
+        <v>24</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="24">
+        <v>32</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="J15" s="25">
+        <v>8</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L15" s="26">
+        <v>16</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="N15" s="26">
+        <v>24</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P15" s="26">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="20.25" thickBot="1">
+      <c r="A16" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="J16" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+    </row>
+    <row r="17" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A17" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75">
+      <c r="A18" s="22">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="24">
+        <v>9</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="24">
+        <v>17</v>
+      </c>
+      <c r="G18" s="24">
+        <v>25</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="J18" s="22">
+        <v>1</v>
+      </c>
+      <c r="L18" s="24">
+        <v>9</v>
+      </c>
+      <c r="N18" s="24">
+        <v>17</v>
+      </c>
+      <c r="P18" s="24">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75">
+      <c r="A19" s="22">
+        <v>2</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="24">
+        <v>10</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="24">
+        <v>18</v>
+      </c>
+      <c r="G19" s="24">
+        <v>26</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="J19" s="22">
+        <v>2</v>
+      </c>
+      <c r="L19" s="24">
+        <v>10</v>
+      </c>
+      <c r="N19" s="24">
+        <v>18</v>
+      </c>
+      <c r="P19" s="24">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75">
+      <c r="A20" s="22">
+        <v>3</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="24">
+        <v>11</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="24">
+        <v>19</v>
+      </c>
+      <c r="G20" s="24">
+        <v>27</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="J20" s="22">
+        <v>3</v>
+      </c>
+      <c r="L20" s="24">
+        <v>11</v>
+      </c>
+      <c r="N20" s="24">
+        <v>19</v>
+      </c>
+      <c r="P20" s="24">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75">
+      <c r="A21" s="22">
+        <v>4</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="24">
+        <v>12</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="24">
+        <v>20</v>
+      </c>
+      <c r="G21" s="24">
+        <v>28</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="J21" s="22">
+        <v>4</v>
+      </c>
+      <c r="L21" s="24">
+        <v>12</v>
+      </c>
+      <c r="N21" s="24">
+        <v>20</v>
+      </c>
+      <c r="P21" s="24">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75">
+      <c r="A22" s="22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="24">
+        <v>13</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="24">
+        <v>21</v>
+      </c>
+      <c r="G22" s="24">
+        <v>29</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="J22" s="22">
+        <v>5</v>
+      </c>
+      <c r="L22" s="24">
+        <v>13</v>
+      </c>
+      <c r="N22" s="24">
+        <v>21</v>
+      </c>
+      <c r="P22" s="24">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75">
+      <c r="A23" s="22">
+        <v>6</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="24">
+        <v>14</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="24">
+        <v>22</v>
+      </c>
+      <c r="G23" s="24">
+        <v>30</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="J23" s="22">
+        <v>6</v>
+      </c>
+      <c r="L23" s="24">
+        <v>14</v>
+      </c>
+      <c r="N23" s="24">
+        <v>22</v>
+      </c>
+      <c r="P23" s="24">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75">
+      <c r="A24" s="22">
+        <v>7</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="24">
+        <v>15</v>
+      </c>
+      <c r="E24" s="24">
+        <v>23</v>
+      </c>
+      <c r="G24" s="24">
+        <v>31</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="J24" s="22">
+        <v>7</v>
+      </c>
+      <c r="L24" s="24">
+        <v>15</v>
+      </c>
+      <c r="N24" s="24">
+        <v>23</v>
+      </c>
+      <c r="P24" s="24">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75">
+      <c r="A25" s="22">
+        <v>8</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="24">
+        <v>16</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="24">
+        <v>24</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="24">
+        <v>32</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="J25" s="25">
+        <v>8</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="26">
+        <v>16</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="26">
+        <v>24</v>
+      </c>
+      <c r="O25" s="12"/>
+      <c r="P25" s="26">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:17" ht="20.25" thickBot="1">
+      <c r="A26" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="J26" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+    </row>
+    <row r="27" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A27" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75">
+      <c r="A28" s="22">
+        <v>1</v>
+      </c>
+      <c r="C28" s="24">
+        <v>9</v>
+      </c>
+      <c r="E28" s="24">
+        <v>17</v>
+      </c>
+      <c r="G28" s="24">
+        <v>25</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="J28" s="22">
+        <v>1</v>
+      </c>
+      <c r="L28" s="24">
+        <v>9</v>
+      </c>
+      <c r="N28" s="24">
+        <v>17</v>
+      </c>
+      <c r="P28" s="24">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="11"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75">
+      <c r="A29" s="22">
+        <v>2</v>
+      </c>
+      <c r="C29" s="24">
+        <v>10</v>
+      </c>
+      <c r="E29" s="24">
+        <v>18</v>
+      </c>
+      <c r="G29" s="24">
+        <v>26</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="J29" s="22">
+        <v>2</v>
+      </c>
+      <c r="L29" s="24">
+        <v>10</v>
+      </c>
+      <c r="N29" s="24">
+        <v>18</v>
+      </c>
+      <c r="P29" s="24">
+        <v>26</v>
+      </c>
+      <c r="Q29" s="11"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75">
+      <c r="A30" s="22">
+        <v>3</v>
+      </c>
+      <c r="C30" s="24">
+        <v>11</v>
+      </c>
+      <c r="E30" s="24">
+        <v>19</v>
+      </c>
+      <c r="G30" s="24">
+        <v>27</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="J30" s="22">
+        <v>3</v>
+      </c>
+      <c r="L30" s="24">
+        <v>11</v>
+      </c>
+      <c r="N30" s="24">
+        <v>19</v>
+      </c>
+      <c r="P30" s="24">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="11"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75">
+      <c r="A31" s="22">
+        <v>4</v>
+      </c>
+      <c r="C31" s="24">
+        <v>12</v>
+      </c>
+      <c r="E31" s="24">
+        <v>20</v>
+      </c>
+      <c r="G31" s="24">
+        <v>28</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="J31" s="22">
+        <v>4</v>
+      </c>
+      <c r="L31" s="24">
+        <v>12</v>
+      </c>
+      <c r="N31" s="24">
+        <v>20</v>
+      </c>
+      <c r="P31" s="24">
+        <v>28</v>
+      </c>
+      <c r="Q31" s="11"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75">
+      <c r="A32" s="22">
+        <v>5</v>
+      </c>
+      <c r="C32" s="24">
+        <v>13</v>
+      </c>
+      <c r="E32" s="24">
+        <v>21</v>
+      </c>
+      <c r="G32" s="24">
+        <v>29</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="J32" s="22">
+        <v>5</v>
+      </c>
+      <c r="L32" s="24">
+        <v>13</v>
+      </c>
+      <c r="N32" s="24">
+        <v>21</v>
+      </c>
+      <c r="P32" s="24">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="11"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75">
+      <c r="A33" s="22">
+        <v>6</v>
+      </c>
+      <c r="C33" s="24">
+        <v>14</v>
+      </c>
+      <c r="E33" s="24">
+        <v>22</v>
+      </c>
+      <c r="G33" s="24">
+        <v>30</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="J33" s="22">
+        <v>6</v>
+      </c>
+      <c r="L33" s="24">
+        <v>14</v>
+      </c>
+      <c r="N33" s="24">
+        <v>22</v>
+      </c>
+      <c r="P33" s="24">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="11"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="22">
+        <v>7</v>
+      </c>
+      <c r="C34" s="24">
+        <v>15</v>
+      </c>
+      <c r="E34" s="24">
+        <v>23</v>
+      </c>
+      <c r="G34" s="24">
+        <v>31</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="J34" s="22">
+        <v>7</v>
+      </c>
+      <c r="L34" s="24">
+        <v>15</v>
+      </c>
+      <c r="N34" s="24">
+        <v>23</v>
+      </c>
+      <c r="P34" s="24">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="11"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75">
+      <c r="A35" s="22">
+        <v>8</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="24">
+        <v>16</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="24">
+        <v>24</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="24">
+        <v>32</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="J35" s="25">
+        <v>8</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="L35" s="26">
+        <v>16</v>
+      </c>
+      <c r="M35" s="12"/>
+      <c r="N35" s="26">
+        <v>24</v>
+      </c>
+      <c r="O35" s="12"/>
+      <c r="P35" s="26">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" spans="1:17" ht="20.25" thickBot="1">
+      <c r="A36" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="J36" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="37"/>
+    </row>
+    <row r="37" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A37" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75">
+      <c r="A38" s="22">
+        <v>1</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="24">
+        <v>9</v>
+      </c>
+      <c r="E38" s="24">
+        <v>17</v>
+      </c>
+      <c r="G38" s="24">
+        <v>25</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="J38" s="22">
+        <v>1</v>
+      </c>
+      <c r="L38" s="24">
+        <v>9</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="N38" s="24">
+        <v>17</v>
+      </c>
+      <c r="P38" s="24">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="11"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75">
+      <c r="A39" s="22">
+        <v>2</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="24">
+        <v>10</v>
+      </c>
+      <c r="E39" s="24">
+        <v>18</v>
+      </c>
+      <c r="G39" s="24">
+        <v>26</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="J39" s="22">
+        <v>2</v>
+      </c>
+      <c r="L39" s="24">
+        <v>10</v>
+      </c>
+      <c r="N39" s="24">
+        <v>18</v>
+      </c>
+      <c r="P39" s="24">
+        <v>26</v>
+      </c>
+      <c r="Q39" s="11"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75">
+      <c r="A40" s="22">
+        <v>3</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="24">
+        <v>11</v>
+      </c>
+      <c r="E40" s="24">
+        <v>19</v>
+      </c>
+      <c r="G40" s="24">
+        <v>27</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="J40" s="22">
+        <v>3</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L40" s="24">
+        <v>11</v>
+      </c>
+      <c r="M40" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="N40" s="24">
+        <v>19</v>
+      </c>
+      <c r="P40" s="24">
+        <v>27</v>
+      </c>
+      <c r="Q40" s="11"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75">
+      <c r="A41" s="22">
+        <v>4</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="24">
+        <v>12</v>
+      </c>
+      <c r="E41" s="24">
+        <v>20</v>
+      </c>
+      <c r="G41" s="24">
+        <v>28</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="J41" s="22">
+        <v>4</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L41" s="24">
+        <v>12</v>
+      </c>
+      <c r="N41" s="24">
+        <v>20</v>
+      </c>
+      <c r="P41" s="24">
+        <v>28</v>
+      </c>
+      <c r="Q41" s="11"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75">
+      <c r="A42" s="22">
+        <v>5</v>
+      </c>
+      <c r="C42" s="24">
+        <v>13</v>
+      </c>
+      <c r="E42" s="24">
+        <v>21</v>
+      </c>
+      <c r="G42" s="24">
+        <v>29</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="J42" s="22">
+        <v>5</v>
+      </c>
+      <c r="L42" s="24">
+        <v>13</v>
+      </c>
+      <c r="N42" s="24">
+        <v>21</v>
+      </c>
+      <c r="P42" s="24">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="11"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75">
+      <c r="A43" s="22">
+        <v>6</v>
+      </c>
+      <c r="C43" s="24">
+        <v>14</v>
+      </c>
+      <c r="E43" s="24">
+        <v>22</v>
+      </c>
+      <c r="G43" s="24">
+        <v>30</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="J43" s="22">
+        <v>6</v>
+      </c>
+      <c r="L43" s="24">
+        <v>14</v>
+      </c>
+      <c r="N43" s="24">
+        <v>22</v>
+      </c>
+      <c r="P43" s="24">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="11"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75">
+      <c r="A44" s="22">
+        <v>7</v>
+      </c>
+      <c r="C44" s="24">
+        <v>15</v>
+      </c>
+      <c r="E44" s="24">
+        <v>23</v>
+      </c>
+      <c r="G44" s="24">
+        <v>31</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="J44" s="22">
+        <v>7</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="L44" s="24">
+        <v>15</v>
+      </c>
+      <c r="N44" s="24">
+        <v>23</v>
+      </c>
+      <c r="P44" s="24">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="11"/>
+    </row>
+    <row r="45" spans="1:17" ht="15.75">
+      <c r="A45" s="22">
+        <v>8</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="24">
+        <v>16</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="24">
+        <v>24</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="24">
+        <v>32</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="J45" s="25">
+        <v>8</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="L45" s="26">
+        <v>16</v>
+      </c>
+      <c r="M45" s="12"/>
+      <c r="N45" s="26">
+        <v>24</v>
+      </c>
+      <c r="O45" s="12"/>
+      <c r="P45" s="26">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" spans="1:17" ht="20.25" thickBot="1">
+      <c r="A46" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+      <c r="J46" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="37"/>
+    </row>
+    <row r="47" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A47" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.75">
+      <c r="A48" s="22">
+        <v>1</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="24">
+        <v>9</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="24">
+        <v>17</v>
+      </c>
+      <c r="G48" s="24">
+        <v>25</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="J48" s="22">
+        <v>1</v>
+      </c>
+      <c r="L48" s="24">
+        <v>9</v>
+      </c>
+      <c r="N48" s="24">
+        <v>17</v>
+      </c>
+      <c r="P48" s="24">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="11"/>
+    </row>
+    <row r="49" spans="1:17" ht="15.75">
+      <c r="A49" s="22">
+        <v>2</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="24">
+        <v>10</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="24">
+        <v>18</v>
+      </c>
+      <c r="G49" s="24">
+        <v>26</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="J49" s="22">
+        <v>2</v>
+      </c>
+      <c r="L49" s="24">
+        <v>10</v>
+      </c>
+      <c r="N49" s="24">
+        <v>18</v>
+      </c>
+      <c r="P49" s="24">
+        <v>26</v>
+      </c>
+      <c r="Q49" s="11"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75">
+      <c r="A50" s="22">
+        <v>3</v>
+      </c>
+      <c r="C50" s="24">
+        <v>11</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E50" s="24">
+        <v>19</v>
+      </c>
+      <c r="G50" s="24">
+        <v>27</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="J50" s="22">
+        <v>3</v>
+      </c>
+      <c r="L50" s="24">
+        <v>11</v>
+      </c>
+      <c r="N50" s="24">
+        <v>19</v>
+      </c>
+      <c r="P50" s="24">
+        <v>27</v>
+      </c>
+      <c r="Q50" s="11"/>
+    </row>
+    <row r="51" spans="1:17" ht="15.75">
+      <c r="A51" s="22">
+        <v>4</v>
+      </c>
+      <c r="C51" s="24">
+        <v>12</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" s="24">
+        <v>20</v>
+      </c>
+      <c r="G51" s="24">
+        <v>28</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="J51" s="22">
+        <v>4</v>
+      </c>
+      <c r="L51" s="24">
+        <v>12</v>
+      </c>
+      <c r="N51" s="24">
+        <v>20</v>
+      </c>
+      <c r="P51" s="24">
+        <v>28</v>
+      </c>
+      <c r="Q51" s="11"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75">
+      <c r="A52" s="22">
+        <v>5</v>
+      </c>
+      <c r="C52" s="24">
+        <v>13</v>
+      </c>
+      <c r="E52" s="24">
+        <v>21</v>
+      </c>
+      <c r="G52" s="24">
+        <v>29</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="J52" s="22">
+        <v>5</v>
+      </c>
+      <c r="L52" s="24">
+        <v>13</v>
+      </c>
+      <c r="N52" s="24">
+        <v>21</v>
+      </c>
+      <c r="P52" s="24">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="11"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75">
+      <c r="A53" s="22">
+        <v>6</v>
+      </c>
+      <c r="C53" s="24">
+        <v>14</v>
+      </c>
+      <c r="E53" s="24">
+        <v>22</v>
+      </c>
+      <c r="G53" s="24">
+        <v>30</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="J53" s="22">
+        <v>6</v>
+      </c>
+      <c r="L53" s="24">
+        <v>14</v>
+      </c>
+      <c r="N53" s="24">
+        <v>22</v>
+      </c>
+      <c r="P53" s="24">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="11"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75">
+      <c r="A54" s="22">
+        <v>7</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="24">
+        <v>15</v>
+      </c>
+      <c r="E54" s="24">
+        <v>23</v>
+      </c>
+      <c r="G54" s="24">
+        <v>31</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="J54" s="22">
+        <v>7</v>
+      </c>
+      <c r="L54" s="24">
+        <v>15</v>
+      </c>
+      <c r="N54" s="24">
+        <v>23</v>
+      </c>
+      <c r="P54" s="24">
+        <v>31</v>
+      </c>
+      <c r="Q54" s="11"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.75">
+      <c r="A55" s="25">
+        <v>8</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="26">
+        <v>16</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="26">
+        <v>24</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="26">
+        <v>32</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="J55" s="25">
+        <v>8</v>
+      </c>
+      <c r="K55" s="12"/>
+      <c r="L55" s="26">
+        <v>16</v>
+      </c>
+      <c r="M55" s="12"/>
+      <c r="N55" s="26">
+        <v>24</v>
+      </c>
+      <c r="O55" s="12"/>
+      <c r="P55" s="26">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A46:H46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Wiring Info for Yadama Walls.xlsx
+++ b/Wiring Info for Yadama Walls.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vik/Dropbox/NSF-Career/@Hygrothermal Study at NET/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Dropbox/NSF-Career/@Hygrothermal Study at NET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1664F70-C8E1-0546-A936-66DDEEC716B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0BADA9-E4EE-9445-80FC-0DBBF5F0FC4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19920" yWindow="5340" windowWidth="36120" windowHeight="19680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="North Wall 7" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="236">
   <si>
     <t>Sensor</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Info</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>1L</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Cable</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Com (lL)</t>
   </si>
   <si>
@@ -506,12 +500,6 @@
     <t>Logger 1 - Mux D</t>
   </si>
   <si>
-    <t>PMM 274 (T)</t>
-  </si>
-  <si>
-    <t>PMM 274 (M)</t>
-  </si>
-  <si>
     <t>EMS 358 (M)</t>
   </si>
   <si>
@@ -524,15 +512,6 @@
     <t>North Wall 8</t>
   </si>
   <si>
-    <t>3H - jumper 3L to adjacent earth terminal</t>
-  </si>
-  <si>
-    <t>RH 247 (RH)</t>
-  </si>
-  <si>
-    <t>RH 247 (T)</t>
-  </si>
-  <si>
     <t>DF</t>
   </si>
   <si>
@@ -599,42 +578,6 @@
     <t>PMM 276 (M)</t>
   </si>
   <si>
-    <t>PMM 270 (T)</t>
-  </si>
-  <si>
-    <t>PMM 270 (M)</t>
-  </si>
-  <si>
-    <t>PMM 271 (T)</t>
-  </si>
-  <si>
-    <t>PMM 271 (M)</t>
-  </si>
-  <si>
-    <t>PMM 272 (T)</t>
-  </si>
-  <si>
-    <t>PMM 272 (M)</t>
-  </si>
-  <si>
-    <t>PMM 273 (T)</t>
-  </si>
-  <si>
-    <t>PMM 273 (M)</t>
-  </si>
-  <si>
-    <t>EMS 355 (M)</t>
-  </si>
-  <si>
-    <t>EMS 355 (T)</t>
-  </si>
-  <si>
-    <t>RH 249 (RH)</t>
-  </si>
-  <si>
-    <t>RH 249 (T)</t>
-  </si>
-  <si>
     <t>5H - jumper 5L to G</t>
   </si>
   <si>
@@ -732,6 +675,66 @@
   </si>
   <si>
     <t>PMM267 (M)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ground on CR1000</t>
+  </si>
+  <si>
+    <t>18H - jumper 18L connected to adjacent earth terminal</t>
+  </si>
+  <si>
+    <t>12H (12L connected to adjacent ground)</t>
+  </si>
+  <si>
+    <t>PMM270 (T)</t>
+  </si>
+  <si>
+    <t>PMM270 (M)</t>
+  </si>
+  <si>
+    <t>PMM271 (T)</t>
+  </si>
+  <si>
+    <t>PMM271 (M)</t>
+  </si>
+  <si>
+    <t>PMM272 (T)</t>
+  </si>
+  <si>
+    <t>PMM272 (M)</t>
+  </si>
+  <si>
+    <t>PMM273 (T)</t>
+  </si>
+  <si>
+    <t>PMM273 (M)</t>
+  </si>
+  <si>
+    <t>EMS355 (M)</t>
+  </si>
+  <si>
+    <t>EMS355 (T)</t>
+  </si>
+  <si>
+    <t>RH249 (T)</t>
+  </si>
+  <si>
+    <t>PMM274 (T)</t>
+  </si>
+  <si>
+    <t>PMM274 (M)</t>
+  </si>
+  <si>
+    <t>RH247 (T)</t>
+  </si>
+  <si>
+    <t>RH247 (RH)</t>
+  </si>
+  <si>
+    <t>RH249 (RH)</t>
   </si>
 </sst>
 </file>
@@ -1085,6 +1088,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1103,11 +1111,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1430,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1444,7 +1447,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1457,7 +1460,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="G4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34">
@@ -1465,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1483,21 +1486,21 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6">
         <v>5</v>
@@ -1506,13 +1509,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>2</v>
@@ -1520,10 +1523,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
@@ -1532,13 +1535,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
         <v>2</v>
@@ -1546,13 +1549,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -1561,13 +1564,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
         <v>2</v>
@@ -1575,10 +1578,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6">
         <v>6</v>
@@ -1587,13 +1590,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
         <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -1604,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="34">
@@ -1612,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1630,18 +1633,18 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D14" s="13">
         <v>23</v>
@@ -1650,27 +1653,27 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
       </c>
       <c r="D15" s="13">
         <v>24</v>
@@ -1679,27 +1682,27 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="13">
         <v>26</v>
@@ -1708,24 +1711,24 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
         <v>26</v>
       </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="13">
         <v>25</v>
@@ -1734,16 +1737,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="34">
@@ -1751,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="34">
@@ -1759,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1777,137 +1780,137 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="6">
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="6">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="6">
         <v>19</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="6">
         <v>28</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="6">
         <v>27</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1915,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="34">
@@ -1923,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1941,96 +1944,96 @@
         <v>7</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="39">
+      <c r="E31" s="33">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="39">
+      <c r="E32" s="33">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" t="s">
         <v>15</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="39">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="39">
+        <v>24</v>
+      </c>
+      <c r="E34" s="33">
         <v>1</v>
       </c>
       <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" t="s">
         <v>98</v>
-      </c>
-      <c r="G34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1">
@@ -2038,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="34">
@@ -2046,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
@@ -2064,96 +2067,96 @@
         <v>7</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="39">
+        <v>107</v>
+      </c>
+      <c r="E40" s="33">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="39">
+      <c r="E41" s="33">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
         <v>20</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" s="33">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" t="s">
         <v>22</v>
-      </c>
-      <c r="E42" s="39">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H42" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="39">
+        <v>24</v>
+      </c>
+      <c r="E43" s="33">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1">
@@ -2161,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="34">
@@ -2169,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -2187,96 +2190,96 @@
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="33">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" t="s">
         <v>15</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="39">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" t="s">
-        <v>114</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="39">
+      <c r="E50" s="33">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
         <v>20</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>21</v>
       </c>
-      <c r="C51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="39">
+      <c r="E51" s="33">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="39">
+        <v>24</v>
+      </c>
+      <c r="E52" s="33">
         <v>1</v>
       </c>
       <c r="F52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" t="s">
         <v>98</v>
-      </c>
-      <c r="G52" t="s">
-        <v>117</v>
-      </c>
-      <c r="H52" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1">
@@ -2284,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="34">
@@ -2292,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -2310,96 +2313,96 @@
         <v>7</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="39">
+        <v>107</v>
+      </c>
+      <c r="E59" s="33">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
         <v>15</v>
       </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="39">
+      <c r="E60" s="33">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
         <v>20</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>21</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" s="33">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" t="s">
         <v>22</v>
-      </c>
-      <c r="E61" s="39">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H61" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="39">
+        <v>24</v>
+      </c>
+      <c r="E62" s="33">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1">
@@ -2407,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="34">
@@ -2415,7 +2418,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -2433,96 +2436,96 @@
         <v>7</v>
       </c>
       <c r="H67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
-      </c>
-      <c r="E68" s="39">
+        <v>107</v>
+      </c>
+      <c r="E68" s="33">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
         <v>15</v>
       </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="39">
+      <c r="E69" s="33">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
         <v>20</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>21</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" s="33">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" t="s">
+        <v>122</v>
+      </c>
+      <c r="H70" t="s">
         <v>22</v>
-      </c>
-      <c r="E70" s="39">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>98</v>
-      </c>
-      <c r="G70" t="s">
-        <v>124</v>
-      </c>
-      <c r="H70" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="39">
+        <v>24</v>
+      </c>
+      <c r="E71" s="33">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="4" customFormat="1">
@@ -2530,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="34">
@@ -2538,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -2556,96 +2559,96 @@
         <v>7</v>
       </c>
       <c r="H76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="33">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" t="s">
         <v>15</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" s="39">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" t="s">
-        <v>126</v>
-      </c>
-      <c r="H77" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
         <v>15</v>
       </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" s="39">
+      <c r="E78" s="33">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G78" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
         <v>20</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>21</v>
       </c>
-      <c r="C79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" s="39">
+      <c r="E79" s="33">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G79" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" s="39">
+        <v>24</v>
+      </c>
+      <c r="E80" s="33">
         <v>1</v>
       </c>
       <c r="F80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G80" t="s">
+        <v>127</v>
+      </c>
+      <c r="H80" t="s">
         <v>98</v>
-      </c>
-      <c r="G80" t="s">
-        <v>129</v>
-      </c>
-      <c r="H80" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="4" customFormat="1">
@@ -2653,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="34">
@@ -2661,7 +2664,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -2679,96 +2682,96 @@
         <v>7</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="33">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87" t="s">
+        <v>128</v>
+      </c>
+      <c r="H87" t="s">
         <v>15</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" t="s">
-        <v>109</v>
-      </c>
-      <c r="E87" s="39">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" t="s">
-        <v>130</v>
-      </c>
-      <c r="H87" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
         <v>15</v>
       </c>
-      <c r="B88" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="39">
+      <c r="E88" s="33">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H88" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
         <v>20</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>21</v>
       </c>
-      <c r="C89" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="39">
+      <c r="E89" s="33">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G89" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" s="39">
+        <v>24</v>
+      </c>
+      <c r="E90" s="33">
         <v>1</v>
       </c>
       <c r="F90" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90" t="s">
+        <v>131</v>
+      </c>
+      <c r="H90" t="s">
         <v>98</v>
-      </c>
-      <c r="G90" t="s">
-        <v>133</v>
-      </c>
-      <c r="H90" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="4" customFormat="1">
@@ -2776,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="34">
@@ -2784,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
@@ -2802,96 +2805,96 @@
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" s="39">
+        <v>107</v>
+      </c>
+      <c r="E96" s="33">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G96" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
         <v>15</v>
       </c>
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="39">
+      <c r="E97" s="33">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
         <v>20</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>21</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E98" s="33">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>96</v>
+      </c>
+      <c r="G98" t="s">
+        <v>134</v>
+      </c>
+      <c r="H98" t="s">
         <v>22</v>
-      </c>
-      <c r="E98" s="39">
-        <v>1</v>
-      </c>
-      <c r="F98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G98" t="s">
-        <v>136</v>
-      </c>
-      <c r="H98" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
-      </c>
-      <c r="E99" s="39">
+        <v>24</v>
+      </c>
+      <c r="E99" s="33">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G99" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="4" customFormat="1">
@@ -2899,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="34">
@@ -2907,7 +2910,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
@@ -2925,96 +2928,96 @@
         <v>7</v>
       </c>
       <c r="H104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" s="33">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>96</v>
+      </c>
+      <c r="G105" t="s">
+        <v>136</v>
+      </c>
+      <c r="H105" t="s">
         <v>15</v>
-      </c>
-      <c r="B105" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" t="s">
-        <v>109</v>
-      </c>
-      <c r="E105" s="39">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s">
-        <v>98</v>
-      </c>
-      <c r="G105" t="s">
-        <v>138</v>
-      </c>
-      <c r="H105" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
         <v>15</v>
       </c>
-      <c r="B106" t="s">
-        <v>16</v>
-      </c>
-      <c r="E106" s="39">
+      <c r="E106" s="33">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G106" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" t="s">
         <v>20</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>21</v>
       </c>
-      <c r="C107" t="s">
-        <v>22</v>
-      </c>
-      <c r="E107" s="39">
+      <c r="E107" s="33">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
-      </c>
-      <c r="E108" s="39">
+        <v>24</v>
+      </c>
+      <c r="E108" s="33">
         <v>1</v>
       </c>
       <c r="F108" t="s">
+        <v>96</v>
+      </c>
+      <c r="G108" t="s">
+        <v>139</v>
+      </c>
+      <c r="H108" t="s">
         <v>98</v>
-      </c>
-      <c r="G108" t="s">
-        <v>141</v>
-      </c>
-      <c r="H108" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="4" customFormat="1">
@@ -3022,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="34">
@@ -3030,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -3048,96 +3051,96 @@
         <v>7</v>
       </c>
       <c r="H114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>109</v>
-      </c>
-      <c r="E115" s="39">
+        <v>107</v>
+      </c>
+      <c r="E115" s="33">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G115" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
         <v>15</v>
       </c>
-      <c r="B116" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116" s="39">
+      <c r="E116" s="33">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G116" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s">
         <v>20</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>21</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E117" s="33">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>96</v>
+      </c>
+      <c r="G117" t="s">
+        <v>142</v>
+      </c>
+      <c r="H117" t="s">
         <v>22</v>
-      </c>
-      <c r="E117" s="39">
-        <v>1</v>
-      </c>
-      <c r="F117" t="s">
-        <v>98</v>
-      </c>
-      <c r="G117" t="s">
-        <v>144</v>
-      </c>
-      <c r="H117" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
-      </c>
-      <c r="E118" s="39">
+        <v>24</v>
+      </c>
+      <c r="E118" s="33">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G118" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H118" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="4" customFormat="1">
@@ -3145,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="34">
@@ -3153,7 +3156,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
@@ -3171,96 +3174,96 @@
         <v>7</v>
       </c>
       <c r="H123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>144</v>
+      </c>
+      <c r="G124" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" t="s">
         <v>15</v>
-      </c>
-      <c r="B124" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" t="s">
-        <v>109</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124" t="s">
-        <v>146</v>
-      </c>
-      <c r="G124" t="s">
-        <v>10</v>
-      </c>
-      <c r="H124" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
         <v>15</v>
       </c>
-      <c r="B125" t="s">
-        <v>16</v>
-      </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H125" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
         <v>20</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>21</v>
       </c>
-      <c r="C126" t="s">
-        <v>22</v>
-      </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>144</v>
+      </c>
+      <c r="G127" t="s">
         <v>25</v>
       </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127" t="s">
-        <v>146</v>
-      </c>
-      <c r="G127" t="s">
-        <v>26</v>
-      </c>
       <c r="H127" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -3268,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -3283,7 +3286,7 @@
         <v>3</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
@@ -3301,107 +3304,107 @@
         <v>7</v>
       </c>
       <c r="H132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E133" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G133" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="17">
       <c r="A134" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E134" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G134" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="17">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G136" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G137" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H137" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -3409,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -3424,7 +3427,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -3442,96 +3445,96 @@
         <v>7</v>
       </c>
       <c r="H141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" t="s">
         <v>15</v>
       </c>
-      <c r="B143" t="s">
-        <v>16</v>
-      </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
         <v>20</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>21</v>
       </c>
-      <c r="C144" t="s">
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>144</v>
+      </c>
+      <c r="G144" t="s">
+        <v>46</v>
+      </c>
+      <c r="H144" t="s">
         <v>22</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144" t="s">
-        <v>146</v>
-      </c>
-      <c r="G144" t="s">
-        <v>48</v>
-      </c>
-      <c r="H144" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G145" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H145" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -3539,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -3554,7 +3557,7 @@
         <v>3</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
@@ -3572,96 +3575,96 @@
         <v>7</v>
       </c>
       <c r="H150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E151">
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G151" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H151" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
         <v>15</v>
       </c>
-      <c r="B152" t="s">
-        <v>16</v>
-      </c>
       <c r="E152">
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G152" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" t="s">
         <v>20</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>21</v>
       </c>
-      <c r="C153" t="s">
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>144</v>
+      </c>
+      <c r="G153" t="s">
+        <v>102</v>
+      </c>
+      <c r="H153" t="s">
         <v>22</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153" t="s">
-        <v>146</v>
-      </c>
-      <c r="G153" t="s">
-        <v>104</v>
-      </c>
-      <c r="H153" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G154" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H154" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -3669,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -3684,7 +3687,7 @@
         <v>3</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -3702,96 +3705,96 @@
         <v>7</v>
       </c>
       <c r="H159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>107</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>144</v>
+      </c>
+      <c r="G160" t="s">
+        <v>50</v>
+      </c>
+      <c r="H160" t="s">
         <v>15</v>
-      </c>
-      <c r="B160" t="s">
-        <v>14</v>
-      </c>
-      <c r="C160" t="s">
-        <v>109</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="F160" t="s">
-        <v>146</v>
-      </c>
-      <c r="G160" t="s">
-        <v>52</v>
-      </c>
-      <c r="H160" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
         <v>15</v>
       </c>
-      <c r="B161" t="s">
-        <v>16</v>
-      </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G161" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H161" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
         <v>20</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>21</v>
       </c>
-      <c r="C162" t="s">
-        <v>22</v>
-      </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G162" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H162" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G163" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H163" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -3799,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -3814,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C170" t="s">
         <v>8</v>
@@ -3832,96 +3835,96 @@
         <v>7</v>
       </c>
       <c r="H170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>107</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>144</v>
+      </c>
+      <c r="G171" t="s">
+        <v>57</v>
+      </c>
+      <c r="H171" t="s">
         <v>15</v>
-      </c>
-      <c r="B171" t="s">
-        <v>14</v>
-      </c>
-      <c r="C171" t="s">
-        <v>109</v>
-      </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171" t="s">
-        <v>146</v>
-      </c>
-      <c r="G171" t="s">
-        <v>59</v>
-      </c>
-      <c r="H171" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s">
         <v>15</v>
       </c>
-      <c r="B172" t="s">
-        <v>16</v>
-      </c>
       <c r="E172">
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G172" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H172" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173" t="s">
         <v>20</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>21</v>
       </c>
-      <c r="C173" t="s">
-        <v>22</v>
-      </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G173" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H173" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G174" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H174" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -3929,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -3944,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
         <v>8</v>
@@ -3962,96 +3965,96 @@
         <v>7</v>
       </c>
       <c r="H181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G182" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H182" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" t="s">
         <v>15</v>
       </c>
-      <c r="B183" t="s">
-        <v>16</v>
-      </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G183" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" t="s">
         <v>20</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>21</v>
       </c>
-      <c r="C184" t="s">
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>144</v>
+      </c>
+      <c r="G184" t="s">
+        <v>58</v>
+      </c>
+      <c r="H184" t="s">
         <v>22</v>
-      </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
-      <c r="F184" t="s">
-        <v>146</v>
-      </c>
-      <c r="G184" t="s">
-        <v>60</v>
-      </c>
-      <c r="H184" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G185" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H185" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4064,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61:G62"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4078,7 +4081,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4086,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34">
@@ -4094,7 +4097,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -4112,21 +4115,21 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -4135,24 +4138,24 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -4161,27 +4164,27 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -4190,24 +4193,24 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -4216,16 +4219,16 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4233,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="34">
@@ -4241,7 +4244,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4259,21 +4262,21 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>24</v>
@@ -4282,24 +4285,24 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
       </c>
       <c r="D16">
         <v>23</v>
@@ -4308,27 +4311,27 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
       </c>
       <c r="D17">
         <v>25</v>
@@ -4337,24 +4340,24 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>26</v>
@@ -4363,16 +4366,16 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4380,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="34">
@@ -4388,7 +4391,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -4406,21 +4409,21 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <v>274</v>
@@ -4429,24 +4432,24 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
         <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
       </c>
       <c r="D25">
         <v>28</v>
@@ -4455,27 +4458,27 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
       </c>
       <c r="D26">
         <v>36</v>
@@ -4484,24 +4487,24 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>35</v>
@@ -4510,16 +4513,16 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4527,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="34">
@@ -4535,7 +4538,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -4553,21 +4556,21 @@
         <v>7</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -4576,24 +4579,24 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
         <v>15</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
       </c>
       <c r="D34">
         <v>31</v>
@@ -4602,27 +4605,27 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>21</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
       </c>
       <c r="D35">
         <v>33</v>
@@ -4631,24 +4634,24 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36">
         <v>34</v>
@@ -4657,16 +4660,16 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4674,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="34">
@@ -4682,7 +4685,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
@@ -4700,120 +4703,120 @@
         <v>7</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
         <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
       </c>
       <c r="D42">
         <v>9</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
         <v>16</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
       </c>
       <c r="D43">
         <v>10</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44">
         <v>11</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45">
         <v>12</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4821,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="34">
@@ -4829,7 +4832,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
@@ -4847,137 +4850,137 @@
         <v>7</v>
       </c>
       <c r="H49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50">
         <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17">
       <c r="A51" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D52">
         <v>17</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="17">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53">
         <v>13</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G53" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s">
         <v>66</v>
-      </c>
-      <c r="H53" t="s">
-        <v>38</v>
-      </c>
-      <c r="I53" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D54">
         <v>14</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4985,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="34">
@@ -4993,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -5011,96 +5014,96 @@
         <v>7</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="39">
+        <v>44</v>
+      </c>
+      <c r="E59" s="33">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
         <v>15</v>
       </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="39">
+      <c r="E60" s="33">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
         <v>20</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>21</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" s="33">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s">
         <v>22</v>
-      </c>
-      <c r="E61" s="39">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="33">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="39">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>98</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>26</v>
-      </c>
       <c r="H62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5108,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="34">
@@ -5116,7 +5119,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -5134,96 +5137,96 @@
         <v>7</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="33">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s">
         <v>15</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" s="39">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>98</v>
-      </c>
-      <c r="G67" t="s">
-        <v>42</v>
-      </c>
-      <c r="H67" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
         <v>15</v>
       </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="39">
+      <c r="E68" s="33">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
         <v>20</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>21</v>
       </c>
-      <c r="C69" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="39">
+      <c r="E69" s="33">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="39">
+        <v>24</v>
+      </c>
+      <c r="E70" s="33">
         <v>1</v>
       </c>
       <c r="F70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" t="s">
         <v>98</v>
-      </c>
-      <c r="G70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H70" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5231,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="34">
@@ -5239,7 +5242,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -5257,107 +5260,107 @@
         <v>7</v>
       </c>
       <c r="H75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E76" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17">
       <c r="A77" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G77" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="39">
+        <v>36</v>
+      </c>
+      <c r="E78" s="33">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="H78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="17">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="39">
+        <v>16</v>
+      </c>
+      <c r="E79" s="33">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G79" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="39">
+        <v>42</v>
+      </c>
+      <c r="E80" s="33">
         <v>1</v>
       </c>
       <c r="F80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G80" t="s">
+        <v>102</v>
+      </c>
+      <c r="H80" t="s">
         <v>98</v>
-      </c>
-      <c r="G80" t="s">
-        <v>104</v>
-      </c>
-      <c r="H80" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5365,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="34">
@@ -5373,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -5391,96 +5394,96 @@
         <v>7</v>
       </c>
       <c r="H85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
         <v>20</v>
       </c>
-      <c r="B86" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="39">
+      <c r="E86" s="33">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G86" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
         <v>16</v>
       </c>
-      <c r="C87" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="39">
+      <c r="E87" s="33">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G87" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H87" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="33">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>96</v>
+      </c>
+      <c r="G88" t="s">
+        <v>53</v>
+      </c>
+      <c r="H88" t="s">
         <v>15</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88" s="39">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" t="s">
-        <v>55</v>
-      </c>
-      <c r="H88" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
-      </c>
-      <c r="E89" s="39">
+        <v>24</v>
+      </c>
+      <c r="E89" s="33">
         <v>1</v>
       </c>
       <c r="F89" t="s">
+        <v>96</v>
+      </c>
+      <c r="G89" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" t="s">
         <v>98</v>
-      </c>
-      <c r="G89" t="s">
-        <v>54</v>
-      </c>
-      <c r="H89" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5488,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="34">
@@ -5496,7 +5499,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -5514,96 +5517,96 @@
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="33">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>96</v>
+      </c>
+      <c r="G94" t="s">
+        <v>57</v>
+      </c>
+      <c r="H94" t="s">
         <v>15</v>
-      </c>
-      <c r="B94" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" t="s">
-        <v>46</v>
-      </c>
-      <c r="E94" s="39">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s">
-        <v>98</v>
-      </c>
-      <c r="G94" t="s">
-        <v>59</v>
-      </c>
-      <c r="H94" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
         <v>15</v>
       </c>
-      <c r="B95" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" s="39">
+      <c r="E95" s="33">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
         <v>20</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>21</v>
       </c>
-      <c r="C96" t="s">
-        <v>22</v>
-      </c>
-      <c r="E96" s="39">
+      <c r="E96" s="33">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G96" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="39">
+        <v>24</v>
+      </c>
+      <c r="E97" s="33">
         <v>1</v>
       </c>
       <c r="F97" t="s">
+        <v>96</v>
+      </c>
+      <c r="G97" t="s">
+        <v>61</v>
+      </c>
+      <c r="H97" t="s">
         <v>98</v>
-      </c>
-      <c r="G97" t="s">
-        <v>63</v>
-      </c>
-      <c r="H97" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5611,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="34">
@@ -5619,7 +5622,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
@@ -5637,96 +5640,96 @@
         <v>7</v>
       </c>
       <c r="H103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
-      </c>
-      <c r="E104" s="39">
+        <v>44</v>
+      </c>
+      <c r="E104" s="33">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G104" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
         <v>15</v>
       </c>
-      <c r="B105" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105" s="39">
+      <c r="E105" s="33">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G105" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" t="s">
         <v>20</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>21</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106" s="33">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>96</v>
+      </c>
+      <c r="G106" t="s">
+        <v>58</v>
+      </c>
+      <c r="H106" t="s">
         <v>22</v>
-      </c>
-      <c r="E106" s="39">
-        <v>1</v>
-      </c>
-      <c r="F106" t="s">
-        <v>98</v>
-      </c>
-      <c r="G106" t="s">
-        <v>60</v>
-      </c>
-      <c r="H106" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
-      </c>
-      <c r="E107" s="39">
+        <v>24</v>
+      </c>
+      <c r="E107" s="33">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5739,8 +5742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5768,104 +5771,104 @@
     <row r="2" spans="1:18">
       <c r="A2" s="17"/>
       <c r="B2" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="19"/>
       <c r="B3" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="E4" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="21" thickBot="1">
-      <c r="A12" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="K12" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="33"/>
+      <c r="A12" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="31"/>
+      <c r="K12" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="1:18" ht="18" thickTop="1" thickBot="1">
       <c r="A13" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="32"/>
       <c r="K13" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Q13" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>0</v>
@@ -5876,25 +5879,25 @@
         <v>1</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C14" s="23">
         <v>9</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="E14" s="23">
         <v>17</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="G14" s="23">
         <v>25</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="K14" s="21">
         <v>1</v>
@@ -5912,25 +5915,25 @@
         <v>2</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C15" s="23">
         <v>10</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E15" s="23">
         <v>18</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="G15" s="23">
         <v>26</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="K15" s="21">
         <v>2</v>
@@ -5948,25 +5951,25 @@
         <v>3</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C16" s="23">
         <v>11</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="E16" s="23">
         <v>19</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G16" s="23">
         <v>27</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="K16" s="21">
         <v>3</v>
@@ -5984,25 +5987,25 @@
         <v>4</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C17" s="23">
         <v>12</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E17" s="23">
         <v>20</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="G17" s="23">
         <v>28</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="K17" s="21">
         <v>4</v>
@@ -6020,25 +6023,25 @@
         <v>5</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C18" s="23">
         <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="E18" s="23">
         <v>21</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G18" s="23">
         <v>29</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="K18" s="21">
         <v>5</v>
@@ -6056,25 +6059,25 @@
         <v>6</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C19" s="23">
         <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E19" s="23">
         <v>22</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="G19" s="23">
         <v>30</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="K19" s="21">
         <v>6</v>
@@ -6092,25 +6095,25 @@
         <v>7</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C20" s="23">
         <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="E20" s="23">
         <v>23</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="G20" s="23">
         <v>31</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="K20" s="21">
         <v>7</v>
@@ -6128,25 +6131,25 @@
         <v>8</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C21" s="23">
         <v>16</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="E21" s="23">
         <v>24</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="G21" s="23">
         <v>32</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="K21" s="24">
         <v>8</v>
@@ -6160,74 +6163,74 @@
       <c r="R21" s="18"/>
     </row>
     <row r="22" spans="1:18" ht="21" thickBot="1">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="31"/>
+      <c r="K22" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="K22" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="33"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="1:18" ht="18" thickTop="1" thickBot="1">
       <c r="A23" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="38"/>
+      <c r="I23" s="32"/>
       <c r="K23" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Q23" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>0</v>
@@ -6238,13 +6241,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C24" s="23">
         <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E24" s="23">
         <v>17</v>
@@ -6272,13 +6275,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C25" s="23">
         <v>10</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E25" s="23">
         <v>18</v>
@@ -6306,13 +6309,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C26" s="23">
         <v>11</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E26" s="23">
         <v>19</v>
@@ -6340,13 +6343,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C27" s="23">
         <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E27" s="23">
         <v>20</v>
@@ -6374,13 +6377,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C28" s="23">
         <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E28" s="23">
         <v>21</v>
@@ -6408,13 +6411,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C29" s="23">
         <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E29" s="23">
         <v>22</v>
@@ -6442,7 +6445,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C30" s="23">
         <v>15</v>
@@ -6473,7 +6476,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C31" s="23">
         <v>16</v>
@@ -6505,74 +6508,74 @@
       <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:18" ht="21" thickBot="1">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="31"/>
+      <c r="K32" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37"/>
-      <c r="K32" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="33"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="36"/>
     </row>
     <row r="33" spans="1:18" ht="18" thickTop="1" thickBot="1">
       <c r="A33" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="38"/>
+      <c r="I33" s="32"/>
       <c r="K33" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Q33" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>0</v>
@@ -6582,11 +6585,20 @@
       <c r="A34" s="21">
         <v>1</v>
       </c>
+      <c r="B34" s="19" t="s">
+        <v>220</v>
+      </c>
       <c r="C34" s="23">
         <v>9</v>
       </c>
+      <c r="D34" s="19" t="s">
+        <v>228</v>
+      </c>
       <c r="E34" s="23">
         <v>17</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="G34" s="23">
         <v>25</v>
@@ -6610,11 +6622,20 @@
       <c r="A35" s="21">
         <v>2</v>
       </c>
+      <c r="B35" s="19" t="s">
+        <v>221</v>
+      </c>
       <c r="C35" s="23">
         <v>10</v>
       </c>
+      <c r="D35" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="E35" s="23">
         <v>18</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="G35" s="23">
         <v>26</v>
@@ -6638,8 +6659,14 @@
       <c r="A36" s="21">
         <v>3</v>
       </c>
+      <c r="B36" s="19" t="s">
+        <v>222</v>
+      </c>
       <c r="C36" s="23">
         <v>11</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="E36" s="23">
         <v>19</v>
@@ -6666,8 +6693,14 @@
       <c r="A37" s="21">
         <v>4</v>
       </c>
+      <c r="B37" s="19" t="s">
+        <v>223</v>
+      </c>
       <c r="C37" s="23">
         <v>12</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="E37" s="23">
         <v>20</v>
@@ -6694,8 +6727,14 @@
       <c r="A38" s="21">
         <v>5</v>
       </c>
+      <c r="B38" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="C38" s="23">
         <v>13</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="E38" s="23">
         <v>21</v>
@@ -6722,8 +6761,14 @@
       <c r="A39" s="21">
         <v>6</v>
       </c>
+      <c r="B39" s="19" t="s">
+        <v>225</v>
+      </c>
       <c r="C39" s="23">
         <v>14</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>232</v>
       </c>
       <c r="E39" s="23">
         <v>22</v>
@@ -6750,8 +6795,14 @@
       <c r="A40" s="21">
         <v>7</v>
       </c>
+      <c r="B40" s="19" t="s">
+        <v>226</v>
+      </c>
       <c r="C40" s="23">
         <v>15</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="E40" s="23">
         <v>23</v>
@@ -6778,11 +6829,15 @@
       <c r="A41" s="21">
         <v>8</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="28" t="s">
+        <v>227</v>
+      </c>
       <c r="C41" s="23">
         <v>16</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="26" t="s">
+        <v>158</v>
+      </c>
       <c r="E41" s="23">
         <v>24</v>
       </c>
@@ -6809,74 +6864,74 @@
       <c r="R41" s="12"/>
     </row>
     <row r="42" spans="1:18" ht="21" thickBot="1">
-      <c r="A42" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="37"/>
-      <c r="K42" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="33"/>
+      <c r="A42" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="31"/>
+      <c r="K42" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="36"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickTop="1" thickBot="1">
       <c r="A43" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="38"/>
+      <c r="I43" s="32"/>
       <c r="K43" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>0</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>0</v>
       </c>
       <c r="O43" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Q43" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R43" s="8" t="s">
         <v>0</v>
@@ -6886,9 +6941,7 @@
       <c r="A44" s="21">
         <v>1</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B44" s="17"/>
       <c r="C44" s="23">
         <v>9</v>
       </c>
@@ -6905,9 +6958,7 @@
       <c r="M44" s="23">
         <v>9</v>
       </c>
-      <c r="N44" s="29" t="s">
-        <v>199</v>
-      </c>
+      <c r="N44" s="29"/>
       <c r="O44" s="23">
         <v>17</v>
       </c>
@@ -6920,9 +6971,7 @@
       <c r="A45" s="21">
         <v>2</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>160</v>
-      </c>
+      <c r="B45" s="17"/>
       <c r="C45" s="23">
         <v>10</v>
       </c>
@@ -6951,9 +7000,7 @@
       <c r="A46" s="21">
         <v>3</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>190</v>
-      </c>
+      <c r="B46" s="19"/>
       <c r="C46" s="23">
         <v>11</v>
       </c>
@@ -6967,15 +7014,11 @@
       <c r="K46" s="21">
         <v>3</v>
       </c>
-      <c r="L46" s="17" t="s">
-        <v>166</v>
-      </c>
+      <c r="L46" s="17"/>
       <c r="M46" s="23">
         <v>11</v>
       </c>
-      <c r="N46" s="29" t="s">
-        <v>201</v>
-      </c>
+      <c r="N46" s="29"/>
       <c r="O46" s="23">
         <v>19</v>
       </c>
@@ -6988,9 +7031,7 @@
       <c r="A47" s="21">
         <v>4</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>191</v>
-      </c>
+      <c r="B47" s="19"/>
       <c r="C47" s="23">
         <v>12</v>
       </c>
@@ -7004,9 +7045,7 @@
       <c r="K47" s="21">
         <v>4</v>
       </c>
-      <c r="L47" s="17" t="s">
-        <v>167</v>
-      </c>
+      <c r="L47" s="17"/>
       <c r="M47" s="23">
         <v>12</v>
       </c>
@@ -7091,9 +7130,7 @@
       <c r="K50" s="21">
         <v>7</v>
       </c>
-      <c r="L50" s="29" t="s">
-        <v>200</v>
-      </c>
+      <c r="L50" s="29"/>
       <c r="M50" s="23">
         <v>15</v>
       </c>
@@ -7125,9 +7162,7 @@
       <c r="K51" s="24">
         <v>8</v>
       </c>
-      <c r="L51" s="30" t="s">
-        <v>198</v>
-      </c>
+      <c r="L51" s="30"/>
       <c r="M51" s="25">
         <v>16</v>
       </c>
@@ -7142,74 +7177,74 @@
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" ht="21" thickBot="1">
-      <c r="A52" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="37"/>
-      <c r="K52" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="33"/>
+      <c r="A52" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="31"/>
+      <c r="K52" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="36"/>
     </row>
     <row r="53" spans="1:18" ht="18" thickTop="1" thickBot="1">
       <c r="A53" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I53" s="38"/>
+      <c r="I53" s="32"/>
       <c r="K53" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>0</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>0</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Q53" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R53" s="8" t="s">
         <v>0</v>
@@ -7219,15 +7254,11 @@
       <c r="A54" s="21">
         <v>1</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>161</v>
-      </c>
+      <c r="B54" s="17"/>
       <c r="C54" s="23">
         <v>9</v>
       </c>
-      <c r="D54" s="29" t="s">
-        <v>194</v>
-      </c>
+      <c r="D54" s="29"/>
       <c r="E54" s="23">
         <v>17</v>
       </c>
@@ -7253,15 +7284,11 @@
       <c r="A55" s="21">
         <v>2</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>162</v>
-      </c>
+      <c r="B55" s="17"/>
       <c r="C55" s="23">
         <v>10</v>
       </c>
-      <c r="D55" s="29" t="s">
-        <v>196</v>
-      </c>
+      <c r="D55" s="29"/>
       <c r="E55" s="23">
         <v>18</v>
       </c>
@@ -7290,9 +7317,7 @@
       <c r="C56" s="23">
         <v>11</v>
       </c>
-      <c r="D56" s="29" t="s">
-        <v>197</v>
-      </c>
+      <c r="D56" s="29"/>
       <c r="E56" s="23">
         <v>19</v>
       </c>
@@ -7321,9 +7346,7 @@
       <c r="C57" s="23">
         <v>12</v>
       </c>
-      <c r="D57" s="29" t="s">
-        <v>195</v>
-      </c>
+      <c r="D57" s="29"/>
       <c r="E57" s="23">
         <v>20</v>
       </c>
@@ -7405,9 +7428,7 @@
       <c r="A60" s="21">
         <v>7</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>192</v>
-      </c>
+      <c r="B60" s="19"/>
       <c r="C60" s="23">
         <v>15</v>
       </c>
@@ -7436,9 +7457,7 @@
       <c r="A61" s="24">
         <v>8</v>
       </c>
-      <c r="B61" s="28" t="s">
-        <v>193</v>
-      </c>
+      <c r="B61" s="28"/>
       <c r="C61" s="25">
         <v>16</v>
       </c>
